--- a/Manuscript/Data Dictionary.xlsx
+++ b/Manuscript/Data Dictionary.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
-  <si>
-    <t>Element/Feature</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="235">
   <si>
     <t>Description</t>
   </si>
@@ -27,15 +24,6 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Acceptable Values</t>
-  </si>
-  <si>
-    <t>Document/Table</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -45,12 +33,6 @@
     <t>name of user used to log in</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>not null</t>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
@@ -72,14 +54,680 @@
     <t>determines the user account designation</t>
   </si>
   <si>
-    <t>LearningCenter, Educator, Student</t>
+    <t>securityQuestions</t>
+  </si>
+  <si>
+    <t>array of security questions used for validating user identity</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>single security question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>answer to a security question</t>
+  </si>
+  <si>
+    <t>accountStatus</t>
+  </si>
+  <si>
+    <t>the state of the user if they are validated, etc</t>
+  </si>
+  <si>
+    <t>centerID</t>
+  </si>
+  <si>
+    <t>primary key for learning center document</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>array of user accounts in a learning center entry</t>
+  </si>
+  <si>
+    <t>accessLevel</t>
+  </si>
+  <si>
+    <t>access levels to determine how a user can use the learning center's features</t>
+  </si>
+  <si>
+    <t>Key Name</t>
+  </si>
+  <si>
+    <t>Field Size</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status of a user account in learning center</t>
+  </si>
+  <si>
+    <t>businessName</t>
+  </si>
+  <si>
+    <t>complete business name of a learning center</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>type of service provided by learning center</t>
+  </si>
+  <si>
+    <t>businessAddress</t>
+  </si>
+  <si>
+    <t>houseNo</t>
+  </si>
+  <si>
+    <t>buildingNo</t>
+  </si>
+  <si>
+    <t>buildingName</t>
+  </si>
+  <si>
+    <t>streetName</t>
+  </si>
+  <si>
+    <t>subdivision</t>
+  </si>
+  <si>
+    <t>barangay</t>
+  </si>
+  <si>
+    <t>barangay part of the address</t>
+  </si>
+  <si>
+    <t>building number part of the address</t>
+  </si>
+  <si>
+    <t>building name part of the address</t>
+  </si>
+  <si>
+    <t>streetName part of the address</t>
+  </si>
+  <si>
+    <t>subdivision part of the address</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>district part of the address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>city part of the address</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>province part of the address</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>country part of the address</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>zip code part of the address</t>
+  </si>
+  <si>
+    <t>subscriptionType</t>
+  </si>
+  <si>
+    <t>determines the current subscription</t>
+  </si>
+  <si>
+    <t>date when a subscription ends and reverts to limited</t>
+  </si>
+  <si>
+    <t>educatorID</t>
+  </si>
+  <si>
+    <t>primary key for educator</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>foreign key for name of user used to log in</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middle name of person</t>
+  </si>
+  <si>
+    <t>first name of person</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>last name of person</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>extensions to name such as Sr., Jr., III, IV, etc.</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>address of business</t>
+  </si>
+  <si>
+    <t>name of educator</t>
+  </si>
+  <si>
+    <t>birthdate of educator</t>
+  </si>
+  <si>
+    <t>employmentStatus</t>
+  </si>
+  <si>
+    <t>status of employment in respect to learning centers in the system</t>
+  </si>
+  <si>
+    <t>foreign key for centerID employing this educator</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>position for employed educators in a learning center</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>addresses of an educator</t>
+  </si>
+  <si>
+    <t>house number part of the address</t>
+  </si>
+  <si>
+    <t>street number part of the address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>email address of educator</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>contact no of educator</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>gender of educator (F, M)</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>marital status of an educator</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religion of the educator</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>citizenship of the educator</t>
+  </si>
+  <si>
+    <t>resumeID</t>
+  </si>
+  <si>
+    <t>primary key for resume document</t>
+  </si>
+  <si>
+    <t>foreign key to distinguish the owner of resume document</t>
+  </si>
+  <si>
+    <t>careerObjective</t>
+  </si>
+  <si>
+    <t>short description for career objectives in a resume</t>
+  </si>
+  <si>
+    <t>educationalHistory</t>
+  </si>
+  <si>
+    <t>list of employment history of an educator</t>
+  </si>
+  <si>
+    <t>educationLevel</t>
+  </si>
+  <si>
+    <t>determines the level of education i.e. elementary, college</t>
+  </si>
+  <si>
+    <t>schoolName</t>
+  </si>
+  <si>
+    <t>school name of previous education</t>
+  </si>
+  <si>
+    <t>schoolAddress</t>
+  </si>
+  <si>
+    <t>address of the school</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>course taken</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>major taken during the course</t>
+  </si>
+  <si>
+    <t>yearStart</t>
+  </si>
+  <si>
+    <t>starting year in this school</t>
+  </si>
+  <si>
+    <t>yearEnd</t>
+  </si>
+  <si>
+    <t>ending year in this school</t>
+  </si>
+  <si>
+    <t>graduated</t>
+  </si>
+  <si>
+    <t>true if graduated, false if undergraduate</t>
+  </si>
+  <si>
+    <t>employmentHistory</t>
+  </si>
+  <si>
+    <t>list of educational history of an educator</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>position or job description of previous company</t>
+  </si>
+  <si>
+    <t>name of previous company</t>
+  </si>
+  <si>
+    <t>address of previous company</t>
+  </si>
+  <si>
+    <t>dateStart</t>
+  </si>
+  <si>
+    <t>dateEnd</t>
+  </si>
+  <si>
+    <t>date ended with previous employment</t>
+  </si>
+  <si>
+    <t>date started with previous employment</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>qualities</t>
+  </si>
+  <si>
+    <t>list of skills in a resume</t>
+  </si>
+  <si>
+    <t>list of qualities in a resume</t>
+  </si>
+  <si>
+    <t>interests</t>
+  </si>
+  <si>
+    <t>list of interests in a resume</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>list of awards in a resume</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>list of references for individual</t>
+  </si>
+  <si>
+    <t>referenceName</t>
+  </si>
+  <si>
+    <t>name of reference</t>
+  </si>
+  <si>
+    <t>affiliation</t>
+  </si>
+  <si>
+    <t>company of the reference</t>
+  </si>
+  <si>
+    <t>position of the reference in their company</t>
+  </si>
+  <si>
+    <t>contactInfo</t>
+  </si>
+  <si>
+    <t>contact information of the reference</t>
+  </si>
+  <si>
+    <t>studentID</t>
+  </si>
+  <si>
+    <t>primary key for the student document</t>
+  </si>
+  <si>
+    <t>name of student</t>
+  </si>
+  <si>
+    <t>currentAddress</t>
+  </si>
+  <si>
+    <t>tag determining if the address is the current one</t>
+  </si>
+  <si>
+    <t>centerID for the current learning center enroled in</t>
+  </si>
+  <si>
+    <t>enrolmentStatus</t>
+  </si>
+  <si>
+    <t>status of enrolment</t>
+  </si>
+  <si>
+    <t>enrolmentHistory</t>
+  </si>
+  <si>
+    <t>list of enrolmentIDs, foreign key, of instances of enrolment made by the student</t>
+  </si>
+  <si>
+    <t>Learning Center</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Job vacancy</t>
+  </si>
+  <si>
+    <t>vacancyID</t>
+  </si>
+  <si>
+    <t>jobDescription</t>
+  </si>
+  <si>
+    <t>jobType</t>
+  </si>
+  <si>
+    <t>incentives</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>companyWebsite</t>
+  </si>
+  <si>
+    <t>operatingDays</t>
+  </si>
+  <si>
+    <t>openingTime</t>
+  </si>
+  <si>
+    <t>closingTime</t>
+  </si>
+  <si>
+    <t>official learning center email address</t>
+  </si>
+  <si>
+    <t>contact numbers for learning center</t>
+  </si>
+  <si>
+    <t>website to visit and learn more about learning center</t>
+  </si>
+  <si>
+    <t>days the learning center is open</t>
+  </si>
+  <si>
+    <t>time the learning center opens</t>
+  </si>
+  <si>
+    <t>time the learning center closes</t>
+  </si>
+  <si>
+    <t>educationalRequirements</t>
+  </si>
+  <si>
+    <t>educationalLevel</t>
+  </si>
+  <si>
+    <t>minimunUnits</t>
+  </si>
+  <si>
+    <t>primary key for job vacancy entries</t>
+  </si>
+  <si>
+    <t>foreign key for Learning center creator of job vacancy</t>
+  </si>
+  <si>
+    <t>status of the job vacancy i.e. active, cancelled, filled</t>
+  </si>
+  <si>
+    <t>position to be filled</t>
+  </si>
+  <si>
+    <t>description of the job position</t>
+  </si>
+  <si>
+    <t>type of job i.e. full-time, part-time, full-time or part-time</t>
+  </si>
+  <si>
+    <t>requirements based on educational attainment</t>
+  </si>
+  <si>
+    <t>educational attainment needed i.e. high school graduate, college level</t>
+  </si>
+  <si>
+    <t>degrees earn from school i.e. bachelor of Secondary Education</t>
+  </si>
+  <si>
+    <t>major taken during from the degrees</t>
+  </si>
+  <si>
+    <t>minimum number of units required</t>
+  </si>
+  <si>
+    <t>list of qualifications needed</t>
+  </si>
+  <si>
+    <t>list of skills needed</t>
+  </si>
+  <si>
+    <t>list possible incentives to entice applicants</t>
+  </si>
+  <si>
+    <t>list of possible responsibilities</t>
+  </si>
+  <si>
+    <t>list of what requirements applicants need to give</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>majors</t>
+  </si>
+  <si>
+    <t>qualifications</t>
+  </si>
+  <si>
+    <t>responsibilities</t>
+  </si>
+  <si>
+    <t>list of ways to apply</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Jobapplication</t>
+  </si>
+  <si>
+    <t>applicationStatus</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>primary key for job application</t>
+  </si>
+  <si>
+    <t>foreign key to the educator making the job application</t>
+  </si>
+  <si>
+    <t>foreign key for the vacancy applied for</t>
+  </si>
+  <si>
+    <t>date the job was applied to</t>
+  </si>
+  <si>
+    <t>status of the application i.e. pending, accepted, rejected</t>
+  </si>
+  <si>
+    <t>what way the application was done i.e. walk-in</t>
+  </si>
+  <si>
+    <t>optional message to the learning center</t>
+  </si>
+  <si>
+    <t>jobApplicationID</t>
+  </si>
+  <si>
+    <t>applicationDate</t>
+  </si>
+  <si>
+    <t>applicationMethod</t>
+  </si>
+  <si>
+    <t>preferredMethod</t>
+  </si>
+  <si>
+    <t>coursesOffered</t>
+  </si>
+  <si>
+    <t>courseName</t>
+  </si>
+  <si>
+    <t>courseDescription</t>
+  </si>
+  <si>
+    <t>courseType</t>
+  </si>
+  <si>
+    <t>name of course or class offered</t>
+  </si>
+  <si>
+    <t>description of the course or class offered</t>
+  </si>
+  <si>
+    <t>if any, the course type</t>
+  </si>
+  <si>
+    <t>list of courses offered by the learning center</t>
+  </si>
+  <si>
+    <t>Enrolment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +737,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -114,14 +769,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,128 +1090,2337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="3">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="3">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="3">
+        <v>500</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="3">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="3">
+        <v>50</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="3">
+        <v>20</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="3">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="3">
+        <v>20</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="3">
+        <v>20</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="3">
+        <v>30</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="3">
+        <v>15</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="3">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="3">
+        <v>30</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="3">
+        <v>30</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="3">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="3">
+        <v>20</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="3">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="3">
+        <v>500</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="3">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="3">
+        <v>100</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="3">
+        <v>300</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="3">
+        <v>100</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="3">
+        <v>50</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="3">
+        <v>4</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="3">
+        <v>100</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="3">
+        <v>300</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="3">
+        <v>100</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="3">
+        <v>50</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="3">
+        <v>100</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="3">
+        <v>50</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="3">
+        <v>30</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="3">
+        <v>20</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="3">
+        <v>20</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="3">
+        <v>50</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="3">
+        <v>20</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="3">
+        <v>20</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="3">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="3">
+        <v>20</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="3">
+        <v>20</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="3">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="3">
+        <v>20</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="3">
+        <v>20</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="3">
+        <v>20</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D114" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="3">
+        <v>30</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="3">
+        <v>15</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D119" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" s="3">
+        <v>30</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="3">
+        <v>30</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D122" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="3">
+        <v>20</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="3">
+        <v>20</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" s="3">
+        <v>10</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="3">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
+      <c r="D129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="3">
+        <v>400</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" s="3">
+        <v>25</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" s="3">
+        <v>200</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C144" s="3">
+        <v>20</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" s="3">
+        <v>20</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146" s="3">
+        <v>20</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C150" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript/Data Dictionary.xlsx
+++ b/Manuscript/Data Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="292">
   <si>
     <t>Description</t>
   </si>
@@ -721,13 +721,184 @@
   </si>
   <si>
     <t>Enrolment</t>
+  </si>
+  <si>
+    <t>enrolmentID</t>
+  </si>
+  <si>
+    <t>enrolmentDate</t>
+  </si>
+  <si>
+    <t>dateClassStart</t>
+  </si>
+  <si>
+    <t>dateClassEnds</t>
+  </si>
+  <si>
+    <t>noOfHours</t>
+  </si>
+  <si>
+    <t>primary key for enrolment</t>
+  </si>
+  <si>
+    <t>foreign key to which center</t>
+  </si>
+  <si>
+    <t>foreign key to which student</t>
+  </si>
+  <si>
+    <t>date enrolment occurred</t>
+  </si>
+  <si>
+    <t>date for start of classes</t>
+  </si>
+  <si>
+    <t>date for end of classes</t>
+  </si>
+  <si>
+    <t>number of hours for the course</t>
+  </si>
+  <si>
+    <t>status of the enrolment</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>paymentID</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>additionalFees</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>payments [ ]</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>validated</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>primary key for payment</t>
+  </si>
+  <si>
+    <t>foreign key for enrolment</t>
+  </si>
+  <si>
+    <t>tuition amount</t>
+  </si>
+  <si>
+    <t>amount of additional fees</t>
+  </si>
+  <si>
+    <t>current balance</t>
+  </si>
+  <si>
+    <t>list of payments made</t>
+  </si>
+  <si>
+    <t>date a payment is made</t>
+  </si>
+  <si>
+    <t>amount, partial or full for payment</t>
+  </si>
+  <si>
+    <t>method the payment is made</t>
+  </si>
+  <si>
+    <t>validation for payment</t>
+  </si>
+  <si>
+    <t>status of payment, complete or with balance</t>
+  </si>
+  <si>
+    <t>tuition amount for a course</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>courseID</t>
+  </si>
+  <si>
+    <t>primary key for the course</t>
+  </si>
+  <si>
+    <t>foreign key for the center offering the course</t>
+  </si>
+  <si>
+    <t>restrictionType</t>
+  </si>
+  <si>
+    <t>scheduleRequest</t>
+  </si>
+  <si>
+    <t>scheduleRequestID</t>
+  </si>
+  <si>
+    <t>scheduleDate</t>
+  </si>
+  <si>
+    <t>timeStart</t>
+  </si>
+  <si>
+    <t>timeEnd</t>
+  </si>
+  <si>
+    <t>primary key for schedule restriction request</t>
+  </si>
+  <si>
+    <t>type of restriction i.e. available, restricted</t>
+  </si>
+  <si>
+    <t>foreign key to educator requesting the schedule</t>
+  </si>
+  <si>
+    <t>foreign key to student requesting the schedule</t>
+  </si>
+  <si>
+    <t>foreign key to learning center requested to</t>
+  </si>
+  <si>
+    <t>the date a schedule is requested</t>
+  </si>
+  <si>
+    <t>a possible start time of schedule request</t>
+  </si>
+  <si>
+    <t>a possible end time of schedule request</t>
+  </si>
+  <si>
+    <t>classID</t>
+  </si>
+  <si>
+    <t>foreign key for the specific class if necessary</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,13 +919,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -769,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +977,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1414,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1233,7 +1431,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1303,7 +1501,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1320,7 +1518,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1337,7 +1535,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1396,7 +1594,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1413,7 +1611,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1430,7 +1628,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1447,7 +1645,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1464,7 +1662,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1481,7 +1679,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1498,7 +1696,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1515,7 +1713,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1532,7 +1730,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1549,7 +1747,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1671,111 +1869,102 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C37" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="3">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="3">
-        <v>30</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>232</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C40" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>205</v>
@@ -1784,77 +1973,77 @@
         <v>20</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>61</v>
+      <c r="A45" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C46" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="3">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="3">
-        <v>20</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>69</v>
+      <c r="A49" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C49" s="3">
         <v>10</v>
@@ -1863,40 +2052,49 @@
         <v>204</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>71</v>
+      <c r="A50" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>80</v>
+      <c r="A51" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C51" s="3">
+        <v>20</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>35</v>
+      <c r="A52" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="3">
         <v>10</v>
@@ -1905,12 +2103,12 @@
         <v>204</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>38</v>
+      <c r="A53" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>205</v>
@@ -1919,15 +2117,15 @@
         <v>20</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>39</v>
+      <c r="A54" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>205</v>
@@ -1936,165 +2134,165 @@
         <v>20</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>46</v>
+      <c r="A55" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C55" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>48</v>
+      <c r="A56" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>50</v>
+      <c r="A57" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="3">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C58" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>89</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C61" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C62" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>205</v>
@@ -2106,387 +2304,378 @@
         <v>203</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C65" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C66" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="3">
-        <v>10</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="3">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="3">
+        <v>500</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="3">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="3">
+        <v>100</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="3">
+        <v>300</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="3">
+        <v>100</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="3">
+        <v>50</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="3">
-        <v>10</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="3">
+        <v>100</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="3">
+        <v>300</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="3">
-        <v>20</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="3">
-        <v>20</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="3">
-        <v>20</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="B83" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="3">
         <v>100</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="3">
-        <v>500</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="3">
-        <v>20</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="3">
-        <v>100</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="3">
-        <v>300</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="3">
-        <v>100</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" s="3">
-        <v>50</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C80" s="3">
-        <v>4</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="3">
-        <v>4</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>208</v>
+      <c r="D83" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>122</v>
+      <c r="A84" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C84" s="3">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>122</v>
+      <c r="A85" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="3">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="3">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>208</v>
@@ -2495,12 +2684,12 @@
         <v>204</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>208</v>
@@ -2509,144 +2698,144 @@
         <v>204</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>134</v>
+      <c r="A91" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C91" s="3">
+        <v>50</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>136</v>
+      <c r="A92" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C92" s="3">
+        <v>100</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>138</v>
+      <c r="A93" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C93" s="3">
+        <v>50</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>140</v>
+      <c r="A94" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C94" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C95" s="3">
-        <v>100</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C96" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C97" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>147</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C99" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>205</v>
@@ -2655,587 +2844,590 @@
         <v>20</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>61</v>
+      <c r="A101" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="3">
+        <v>20</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C102" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103" s="3">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="3">
-        <v>20</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>71</v>
+      <c r="A105" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C105" s="3">
+        <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>80</v>
+      <c r="A106" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C106" s="3">
+        <v>20</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>35</v>
+      <c r="A107" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="3">
+        <v>20</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="3">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="3">
+        <v>20</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="3">
+        <v>20</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="3">
+        <v>20</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C107" s="3">
-        <v>10</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" s="3">
-        <v>20</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C109" s="3">
-        <v>20</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="3">
-        <v>10</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C111" s="3">
-        <v>20</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="C112" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>52</v>
+      <c r="A113" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C113" s="3">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C114" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C115" s="3">
+        <v>15</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="C116" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C117" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="C118" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C119" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C120" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C121" s="3">
+        <v>10</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="3">
+        <v>20</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="3">
+        <v>20</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" s="3">
+        <v>10</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="3">
         <v>30</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C122" s="3">
-        <v>10</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C123" s="3">
-        <v>10</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C126" s="3">
-        <v>20</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" s="3">
-        <v>20</v>
-      </c>
       <c r="D127" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C128" s="3">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C129" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C130" s="3">
-        <v>400</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>164</v>
+      <c r="A131" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C131" s="3">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>178</v>
+      <c r="A132" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="D132" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E132" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>179</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C133" s="3">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>208</v>
@@ -3244,12 +3436,12 @@
         <v>204</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>208</v>
@@ -3258,59 +3450,65 @@
         <v>204</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+      <c r="C142" s="3">
+        <v>20</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="3">
+        <v>20</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>214</v>
@@ -3322,105 +3520,650 @@
         <v>203</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C145" s="3">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C146" s="3">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150" s="3">
+        <v>20</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="3">
+        <v>20</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" s="3">
+        <v>100</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" s="3">
+        <v>500</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C154" s="3">
+        <v>30</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C157" s="3">
+        <v>20</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C158" s="3">
+        <v>20</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" s="3">
+        <v>20</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>234</v>
+      <c r="D160" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="3">
+        <v>5</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="3">
+        <v>20</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C166" s="3">
+        <v>20</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167" s="3">
+        <v>20</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C174" s="3">
+        <v>40</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C176" s="3">
+        <v>20</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C179" s="3">
+        <v>50</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C180" s="3">
+        <v>20</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C181" s="3">
+        <v>20</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C182" s="3">
+        <v>20</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C183" s="3">
+        <v>20</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript/Data Dictionary.xlsx
+++ b/Manuscript/Data Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="342">
   <si>
     <t>Description</t>
   </si>
@@ -846,9 +846,6 @@
     <t>restrictionType</t>
   </si>
   <si>
-    <t>scheduleRequest</t>
-  </si>
-  <si>
     <t>scheduleRequestID</t>
   </si>
   <si>
@@ -891,7 +888,160 @@
     <t>foreign key for the specific class if necessary</t>
   </si>
   <si>
-    <t>Class</t>
+    <t>roomNo</t>
+  </si>
+  <si>
+    <t>primary key for the class instance</t>
+  </si>
+  <si>
+    <t>foreign key to the course the class is under</t>
+  </si>
+  <si>
+    <t>foreign key of the enrolment bases of the class</t>
+  </si>
+  <si>
+    <t>educator assigned to the class</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>the date of the class</t>
+  </si>
+  <si>
+    <t>the time it will start</t>
+  </si>
+  <si>
+    <t>the time it should end</t>
+  </si>
+  <si>
+    <t>the room number assigned to the class</t>
+  </si>
+  <si>
+    <t>Lesson Plan</t>
+  </si>
+  <si>
+    <t>lessonID</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>objective [ ]</t>
+  </si>
+  <si>
+    <t>activities [ ]</t>
+  </si>
+  <si>
+    <t>materials [ ]</t>
+  </si>
+  <si>
+    <t>procedures [ ]</t>
+  </si>
+  <si>
+    <t>primary key for lesson plan</t>
+  </si>
+  <si>
+    <t>foreign key for learning center</t>
+  </si>
+  <si>
+    <t>topic of the lesson plan</t>
+  </si>
+  <si>
+    <t>short description of the topic to plan for</t>
+  </si>
+  <si>
+    <t>a list of materials for the lesson plan</t>
+  </si>
+  <si>
+    <t>a list of objectives for the lesson plan</t>
+  </si>
+  <si>
+    <t>a list of activities for the lesson plan</t>
+  </si>
+  <si>
+    <t>a list of procedures for the lesson plan</t>
+  </si>
+  <si>
+    <t>lessonPlansCovered [ ]</t>
+  </si>
+  <si>
+    <t>studentScores [ ]</t>
+  </si>
+  <si>
+    <t>Class session</t>
+  </si>
+  <si>
+    <t>classSession [ ]</t>
+  </si>
+  <si>
+    <t>classSessionID</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>testTitle</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>testDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key for student record </t>
+  </si>
+  <si>
+    <t>StudentRecord</t>
+  </si>
+  <si>
+    <t>studentRecordID</t>
+  </si>
+  <si>
+    <t>foreign key to enrolment id associated with record</t>
+  </si>
+  <si>
+    <t>the lesson plans tackled by the student</t>
+  </si>
+  <si>
+    <t>the class sessions the student showed up to</t>
+  </si>
+  <si>
+    <t>foreign key to the class session ID</t>
+  </si>
+  <si>
+    <t>remarks an educator can give to the student</t>
+  </si>
+  <si>
+    <t>possible scores for student when tests occur</t>
+  </si>
+  <si>
+    <t>title for the test</t>
+  </si>
+  <si>
+    <t>perfectscore</t>
+  </si>
+  <si>
+    <t>score the student got</t>
+  </si>
+  <si>
+    <t>perfect score the student can get</t>
+  </si>
+  <si>
+    <t>date the score was taken</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>ScheduleRequest</t>
   </si>
 </sst>
 </file>
@@ -1288,2882 +1438,3401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>203</v>
+      <c r="C3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>203</v>
+      <c r="C4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>203</v>
+      <c r="C6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="3">
         <v>50</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>203</v>
+      <c r="C9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>203</v>
+      <c r="C10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="3">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>203</v>
+      <c r="D12" s="3">
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>203</v>
+      <c r="C14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="3">
         <v>100</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="3">
         <v>50</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="3">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>204</v>
+      <c r="C21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>204</v>
+      <c r="C22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="3">
+        <v>20</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>204</v>
+      <c r="C23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="3">
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>203</v>
+      <c r="C24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="3">
         <v>10</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>203</v>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>203</v>
+      <c r="C27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>203</v>
+      <c r="C28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="3">
+        <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>4</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="3">
         <v>30</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="3">
-        <v>20</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>203</v>
+      <c r="C31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="3">
+        <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="3">
         <v>30</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="3">
         <v>10</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="3">
-        <v>20</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>203</v>
+      <c r="D40" s="3">
+        <v>20</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="3">
-        <v>20</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>203</v>
+      <c r="C41" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="3">
+        <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="3">
         <v>50</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E43" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="3">
-        <v>20</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>204</v>
+      <c r="C44" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="3">
+        <v>20</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="3">
-        <v>20</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>203</v>
+      <c r="C45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="3">
+        <v>20</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="3">
         <v>10</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>10</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="3">
-        <v>20</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>204</v>
+      <c r="C50" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="3">
+        <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="3">
-        <v>20</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>204</v>
+      <c r="C51" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="3">
+        <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="3">
         <v>10</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="3">
-        <v>20</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>203</v>
+      <c r="C53" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="3">
+        <v>20</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="3">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>203</v>
+      <c r="C54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="3">
+        <v>20</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="3">
-        <v>20</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>203</v>
+      <c r="C55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="3">
+        <v>20</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>4</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="3">
         <v>30</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="3">
         <v>15</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="3">
         <v>10</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="3">
         <v>30</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="3">
         <v>30</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="3">
         <v>10</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>20</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>10</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="3">
-        <v>20</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>204</v>
+      <c r="C66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="3">
+        <v>20</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="3">
-        <v>20</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>203</v>
+      <c r="D68" s="3">
+        <v>20</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="3">
-        <v>20</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>203</v>
+      <c r="D69" s="3">
+        <v>20</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="3">
         <v>500</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="3">
-        <v>20</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>203</v>
+      <c r="C72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="3">
+        <v>20</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="3">
         <v>100</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="3">
         <v>300</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="3">
         <v>100</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="3">
         <v>50</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>4</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>4</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="3">
         <v>100</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="3">
         <v>300</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="3">
         <v>100</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E83" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E88" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E89" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="3">
         <v>50</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="3">
         <v>100</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="3">
         <v>50</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E93" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="3">
         <v>30</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E94" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="3">
-        <v>20</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>203</v>
+      <c r="D96" s="3">
+        <v>20</v>
       </c>
       <c r="E96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="3">
-        <v>20</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>203</v>
+      <c r="C97" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="3">
+        <v>20</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="3">
         <v>50</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" s="3">
-        <v>20</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>204</v>
+      <c r="C100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="3">
+        <v>20</v>
       </c>
       <c r="E100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="3">
-        <v>20</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>203</v>
+      <c r="C101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="3">
+        <v>20</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="3">
         <v>10</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E103" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="3">
+      <c r="D105" s="3">
         <v>10</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E105" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" s="3">
-        <v>20</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>204</v>
+      <c r="C106" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D106" s="3">
+        <v>20</v>
       </c>
       <c r="E106" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" s="3">
-        <v>20</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>204</v>
+      <c r="C107" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D107" s="3">
+        <v>20</v>
       </c>
       <c r="E107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" s="3">
         <v>10</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E108" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C109" s="3">
-        <v>20</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>203</v>
+      <c r="C109" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" s="3">
+        <v>20</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="3">
-        <v>20</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>203</v>
+      <c r="C110" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="3">
+        <v>20</v>
       </c>
       <c r="E110" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C111" s="3">
-        <v>20</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>203</v>
+      <c r="C111" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="3">
+        <v>20</v>
       </c>
       <c r="E111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C112" s="3">
+      <c r="D112" s="3">
         <v>4</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E113" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="3">
         <v>30</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E114" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="3">
         <v>15</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C116" s="3">
+      <c r="D116" s="3">
         <v>1</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="C117" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" s="3">
         <v>10</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E117" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="3">
+      <c r="C118" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="3">
         <v>30</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E118" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" s="3">
         <v>30</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E119" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>20</v>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C120" s="3">
+      <c r="D120" s="3">
         <v>10</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E120" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="C121" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D121" s="3">
         <v>10</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E121" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="F122" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+    <row r="123" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C124" s="3">
-        <v>20</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>203</v>
+      <c r="D124" s="3">
+        <v>20</v>
       </c>
       <c r="E124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>20</v>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="3">
-        <v>20</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>203</v>
+      <c r="D125" s="3">
+        <v>20</v>
       </c>
       <c r="E125" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C126" s="3">
+      <c r="C126" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="3">
         <v>10</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E126" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127" s="3">
+      <c r="C127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" s="3">
         <v>30</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E127" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C128" s="3">
+      <c r="C128" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" s="3">
         <v>400</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E128" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="C129" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" s="3">
         <v>25</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="F130" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" s="3">
         <v>200</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E131" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E132" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E133" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E134" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E135" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E136" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E137" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E138" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E139" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>204</v>
+      <c r="C140" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="E140" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C142" s="3">
-        <v>20</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>203</v>
+      <c r="D142" s="3">
+        <v>20</v>
       </c>
       <c r="E142" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C143" s="3">
-        <v>20</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>203</v>
+      <c r="D143" s="3">
+        <v>20</v>
       </c>
       <c r="E143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="3">
-        <v>20</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>203</v>
+      <c r="D144" s="3">
+        <v>20</v>
       </c>
       <c r="E144" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E145" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>203</v>
+      <c r="C146" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="E146" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>204</v>
+      <c r="C147" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="E147" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D148" s="3">
         <v>10000</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E148" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C150" s="3">
-        <v>20</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>203</v>
+      <c r="D150" s="3">
+        <v>20</v>
       </c>
       <c r="E150" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="4" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="3">
-        <v>20</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>203</v>
+      <c r="D151" s="3">
+        <v>20</v>
       </c>
       <c r="E151" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="3">
         <v>100</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E152" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C153" s="3">
+      <c r="C153" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D153" s="3">
         <v>500</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E153" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D154" s="3">
         <v>30</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E154" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E155" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C157" s="3">
-        <v>20</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>203</v>
+      <c r="D157" s="3">
+        <v>20</v>
       </c>
       <c r="E157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="4" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C158" s="3">
-        <v>20</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>203</v>
+      <c r="D158" s="3">
+        <v>20</v>
       </c>
       <c r="E158" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C159" s="3">
-        <v>20</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>203</v>
+      <c r="D159" s="3">
+        <v>20</v>
       </c>
       <c r="E159" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E160" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E161" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E162" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C163" s="3">
+      <c r="D163" s="3">
         <v>5</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E163" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C164" s="3">
-        <v>20</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>203</v>
+      <c r="C164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164" s="3">
+        <v>20</v>
       </c>
       <c r="E164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="B165" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C166" s="3">
-        <v>20</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>203</v>
+      <c r="D166" s="3">
+        <v>20</v>
       </c>
       <c r="E166" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C167" s="3">
-        <v>20</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>203</v>
+      <c r="D167" s="3">
+        <v>20</v>
       </c>
       <c r="E167" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E168" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E169" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E170" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E171" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E172" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E173" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C174" s="3">
+      <c r="C174" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D174" s="3">
         <v>40</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E174" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E175" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C176" s="3">
-        <v>20</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>203</v>
+      <c r="C176" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D176" s="3">
+        <v>20</v>
       </c>
       <c r="E176" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B177" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D178" s="3">
+        <v>20</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D179" s="3">
+        <v>20</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D180" s="3">
+        <v>20</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D181" s="3">
+        <v>20</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="81" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="C187" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" s="3">
+        <v>50</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D189" s="3">
+        <v>20</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D190" s="3">
+        <v>20</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D191" s="3">
+        <v>20</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D192" s="3">
+        <v>20</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="C193" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C179" s="3">
-        <v>50</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="D197" s="3">
+        <v>20</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C180" s="3">
-        <v>20</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B181" s="4" t="s">
+      <c r="D198" s="3">
+        <v>20</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D199" s="3">
+        <v>100</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D200" s="3">
+        <v>500</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C181" s="3">
-        <v>20</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182" s="4" t="s">
+      <c r="D206" s="3">
+        <v>20</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C182" s="3">
-        <v>20</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B183" s="4" t="s">
+      <c r="D207" s="3">
+        <v>20</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C183" s="3">
-        <v>20</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B184" s="4" t="s">
+      <c r="D210" s="3">
+        <v>20</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D211" s="3">
+        <v>500</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D213" s="3">
+        <v>200</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D214" s="3">
+        <v>20</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" s="3">
+        <v>20</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C188" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>59</v>
+      <c r="E216" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript/Data Dictionary.xlsx
+++ b/Manuscript/Data Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="340">
   <si>
     <t>Description</t>
   </si>
@@ -894,9 +894,6 @@
     <t>primary key for the class instance</t>
   </si>
   <si>
-    <t>foreign key to the course the class is under</t>
-  </si>
-  <si>
     <t>foreign key of the enrolment bases of the class</t>
   </si>
   <si>
@@ -1035,20 +1032,17 @@
     <t>date the score was taken</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>ScheduleRequest</t>
+  </si>
+  <si>
+    <t>foreign key to course enrolled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,13 +1052,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1108,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,13 +1112,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1438,11 +1422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K189" sqref="K189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,21 +1457,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>339</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>205</v>
@@ -1499,139 +1494,172 @@
         <v>203</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D5" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>157</v>
+      <c r="E11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>157</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D12" s="3">
         <v>20</v>
@@ -1640,292 +1668,346 @@
         <v>203</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>3</v>
+        <v>157</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D14" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="E18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="3">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="3">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="3">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="3">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="3">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="3">
-        <v>20</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="3">
-        <v>20</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="3">
-        <v>20</v>
-      </c>
       <c r="E28" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>54</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>205</v>
@@ -1934,161 +2016,191 @@
         <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B32" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="3">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B35" s="4" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D37" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B38" s="4" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="D38" s="3">
+        <v>20</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>158</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>158</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
+        <v>158</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>205</v>
@@ -2097,77 +2209,92 @@
         <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>61</v>
+      <c r="A42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="3">
+        <v>20</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>64</v>
+      <c r="A43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D43" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>63</v>
+      <c r="A44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="3">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>67</v>
+      <c r="A45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="3">
-        <v>20</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>69</v>
+      <c r="A46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D46" s="3">
         <v>10</v>
@@ -2176,40 +2303,58 @@
         <v>204</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>71</v>
+      <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="D47" s="3">
+        <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>80</v>
+      <c r="A48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D48" s="3">
+        <v>20</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3">
         <v>10</v>
@@ -2218,12 +2363,15 @@
         <v>204</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>205</v>
@@ -2232,15 +2380,18 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>205</v>
@@ -2249,165 +2400,195 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D52" s="3">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="3">
+        <v>30</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="3">
+        <v>15</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="3">
         <v>10</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="3">
-        <v>20</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="3">
-        <v>20</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="3">
-        <v>20</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="E58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="3">
         <v>30</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="3">
-        <v>15</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B61" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>205</v>
@@ -2419,396 +2600,462 @@
         <v>203</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B62" s="4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D62" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B63" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D63" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B64" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D64" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>340</v>
+        <v>159</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="3">
+        <v>20</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="3">
+        <v>20</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="3">
+        <v>100</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="3">
+        <v>300</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="3">
+        <v>100</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="3">
+        <v>50</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="3">
-        <v>10</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="D73" s="3">
+        <v>4</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="3">
+        <v>4</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="3">
+        <v>100</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="3">
+        <v>300</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="3">
-        <v>20</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="C79" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="3">
+        <v>100</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="3">
-        <v>20</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="3">
-        <v>20</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="3">
-        <v>500</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="B80" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="3">
-        <v>20</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="3">
-        <v>100</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" s="3">
-        <v>300</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="3">
-        <v>100</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="3">
-        <v>4</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="3">
-        <v>4</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="E82" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" s="3">
-        <v>100</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D82" s="3">
-        <v>300</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="3">
-        <v>100</v>
-      </c>
       <c r="E83" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
-        <v>126</v>
+      <c r="A84" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
-        <v>127</v>
+      <c r="A85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B86" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>208</v>
@@ -2817,147 +3064,189 @@
         <v>204</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>131</v>
+      <c r="A87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D87" s="3">
+        <v>50</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>134</v>
+      <c r="A88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D88" s="3">
+        <v>100</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>136</v>
+      <c r="A89" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D89" s="3">
+        <v>50</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>138</v>
+      <c r="A90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D90" s="3">
+        <v>30</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
-        <v>140</v>
+      <c r="A91" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D91" s="3">
+        <v>20</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="3">
+        <v>20</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="3">
         <v>50</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="3">
-        <v>100</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D93" s="3">
-        <v>50</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D94" s="3">
-        <v>30</v>
-      </c>
       <c r="E94" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>160</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="3">
+        <v>20</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D96" s="3">
         <v>20</v>
@@ -2966,283 +3255,343 @@
         <v>203</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D97" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B98" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
-        <v>64</v>
+      <c r="A99" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="3">
+        <v>208</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="3">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="3">
+        <v>20</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="3">
+        <v>20</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="3">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="3">
+        <v>20</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="3">
-        <v>20</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="3">
-        <v>20</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D102" s="3">
+      <c r="C105" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" s="3">
+        <v>20</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D106" s="3">
+        <v>20</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="3">
+        <v>4</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" s="3">
+        <v>30</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="3">
+        <v>15</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" s="3">
         <v>10</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="3">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D106" s="3">
-        <v>20</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D107" s="3">
-        <v>20</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D108" s="3">
-        <v>10</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D109" s="3">
-        <v>20</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D110" s="3">
-        <v>20</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D111" s="3">
-        <v>20</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
       <c r="E112" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
-        <v>150</v>
+      <c r="A113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="D113" s="3">
+        <v>30</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B114" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>205</v>
@@ -3251,289 +3600,328 @@
         <v>30</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B115" s="4" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D115" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B116" s="4" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B117" s="4" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D117" s="3">
-        <v>10</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B118" s="4" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D118" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B119" s="4" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D119" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D120" s="3">
         <v>10</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B121" s="4" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D121" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B122" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="3">
+        <v>400</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" s="3">
+        <v>25</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" s="3">
-        <v>20</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="F124" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>20</v>
+        <v>161</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D125" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="4" t="s">
-        <v>28</v>
+      <c r="A126" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126" s="3">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="4" t="s">
-        <v>78</v>
+      <c r="A127" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D127" s="3">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="4" t="s">
-        <v>163</v>
+      <c r="A128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D128" s="3">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B129" s="4" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D129" s="3">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B130" s="4" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E130" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F130" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" s="9" t="s">
-        <v>179</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="3">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>208</v>
@@ -3542,12 +3930,15 @@
         <v>204</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
-        <v>199</v>
+      <c r="A133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>208</v>
@@ -3556,96 +3947,126 @@
         <v>204</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="9" t="s">
-        <v>180</v>
+      <c r="A134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B135" s="4" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="D135" s="3">
+        <v>20</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B136" s="4" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="D136" s="3">
+        <v>20</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B137" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="D137" s="3">
+        <v>20</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B138" s="4" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B139" s="4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B140" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>205</v>
@@ -3654,20 +4075,35 @@
         <v>204</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B141" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>222</v>
+        <v>271</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>214</v>
@@ -3679,15 +4115,15 @@
         <v>203</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>59</v>
+        <v>271</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>214</v>
@@ -3699,99 +4135,132 @@
         <v>203</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="C144" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="3">
+        <v>100</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D145" s="3">
+        <v>500</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D146" s="3">
+        <v>30</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D144" s="3">
-        <v>20</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B146" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D148" s="3">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="B149" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D149" s="3">
+        <v>20</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>214</v>
@@ -3803,15 +4272,15 @@
         <v>203</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>20</v>
+        <v>234</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>214</v>
@@ -3823,85 +4292,106 @@
         <v>203</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="4" t="s">
-        <v>227</v>
+      <c r="A152" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D152" s="3">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="4" t="s">
-        <v>228</v>
+      <c r="A153" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D153" s="3">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="4" t="s">
-        <v>229</v>
+      <c r="A154" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D154" s="3">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="4" t="s">
-        <v>251</v>
+      <c r="A155" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>257</v>
+        <v>206</v>
+      </c>
+      <c r="D155" s="3">
+        <v>5</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D156" s="3">
+        <v>20</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>214</v>
@@ -3913,15 +4403,15 @@
         <v>203</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>20</v>
+        <v>248</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>214</v>
@@ -3933,293 +4423,359 @@
         <v>203</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>147</v>
+        <v>248</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D159" s="3">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="8" t="s">
-        <v>236</v>
+      <c r="A160" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D163" s="3">
-        <v>5</v>
-      </c>
       <c r="E163" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="B164" s="8" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D164" s="3">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="B165" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>248</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D165" s="3">
+        <v>40</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D166" s="3">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D167" s="3">
+        <v>20</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D168" s="3">
+        <v>20</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D167" s="3">
-        <v>20</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>257</v>
+      <c r="D169" s="3">
+        <v>20</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="B170" s="4" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>257</v>
+        <v>214</v>
+      </c>
+      <c r="D170" s="3">
+        <v>20</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="B171" s="4" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="9" t="s">
-        <v>258</v>
+      <c r="A172" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B173" s="9" t="s">
-        <v>255</v>
+      <c r="A173" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="9" t="s">
-        <v>250</v>
+      <c r="A174" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D174" s="3">
-        <v>40</v>
-      </c>
       <c r="E174" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B175" s="9" t="s">
-        <v>256</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="B176" s="4" t="s">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D176" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B177" s="6" t="s">
-        <v>318</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D177" s="3">
+        <v>20</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>214</v>
@@ -4228,18 +4784,18 @@
         <v>20</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>214</v>
@@ -4251,15 +4807,15 @@
         <v>203</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>214</v>
@@ -4268,193 +4824,217 @@
         <v>20</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D181" s="3">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="B182" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="B183" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="B184" s="4" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="D184" s="3">
+        <v>20</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="B185" s="4" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+      <c r="D185" s="3">
+        <v>20</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F185" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="81" x14ac:dyDescent="0.25">
-      <c r="B186" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" s="3">
+        <v>100</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
+      </c>
+      <c r="D187" s="3">
+        <v>500</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="B188" s="4" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D188" s="3">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D189" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D190" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D191" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>214</v>
@@ -4463,376 +5043,198 @@
         <v>20</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="B193" s="4" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="D193" s="3">
+        <v>20</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="B194" s="4" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="B195" s="4" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="s">
-        <v>300</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196" s="3">
+        <v>20</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>301</v>
+        <v>325</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D197" s="3">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D198" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="4" t="s">
-        <v>302</v>
+      <c r="A199" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D199" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="4" t="s">
-        <v>303</v>
+      <c r="A200" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D200" s="3">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="4" t="s">
-        <v>304</v>
+      <c r="A201" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="D201" s="3">
+        <v>20</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B202" s="4" t="s">
-        <v>306</v>
+      <c r="A202" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="B205" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D206" s="3">
-        <v>20</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D207" s="3">
-        <v>20</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D210" s="3">
-        <v>20</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D211" s="3">
-        <v>500</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D213" s="3">
-        <v>200</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D214" s="3">
-        <v>20</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D215" s="3">
-        <v>20</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F215" s="4" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
